--- a/Data/grouping_cytokine.xlsx
+++ b/Data/grouping_cytokine.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,42 +410,72 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>ifn_alpha_siddiqi</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_beta_siddiqi</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_gamma_siddiqi</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>m_1_2_geomean</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>m_3_4_geomean</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>m_5_12_geomean</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ifn_1_el_sherb_geomean</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>ifn_2_el_sherb_geomean</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>ifn_2_siddiqi_geomean</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>il_6_related_geomean</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>tnf_related_geomean</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_alpha_siddiqi_geomean</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_beta_siddiqi_geomean</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ifn_gamma_siddiqi_geomean</t>
         </is>
       </c>
     </row>
@@ -457,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C2">
@@ -485,28 +515,46 @@
         <v>0.5298821146611261</v>
       </c>
       <c r="K2">
+        <v>13.89663685479925</v>
+      </c>
+      <c r="L2">
+        <v>2.829785755345316</v>
+      </c>
+      <c r="M2">
+        <v>0.2683322172488892</v>
+      </c>
+      <c r="N2">
         <v>3215.662923454875</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>1677.47213648484</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>1833.157650018498</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>2064.19761480628</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>1192.451171628181</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>5662.29063961629</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>298.7736029502479</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>206.7049576611799</v>
+      </c>
+      <c r="V2">
+        <v>2380.829324778376</v>
+      </c>
+      <c r="W2">
+        <v>291.3596381009584</v>
+      </c>
+      <c r="X2">
+        <v>2817.683276216916</v>
       </c>
     </row>
     <row r="3">
@@ -517,7 +565,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3">
@@ -545,28 +593,46 @@
         <v>0.3661244339248337</v>
       </c>
       <c r="K3">
+        <v>7.637731105125786</v>
+      </c>
+      <c r="L3">
+        <v>1.472227443618796</v>
+      </c>
+      <c r="M3">
+        <v>1.374079502595779</v>
+      </c>
+      <c r="N3">
         <v>2993.413160026927</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>1629.255359160285</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>1897.810992147406</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>1756.706323618663</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>1108.282139488979</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>13493.30461027209</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>266.5934189556614</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>185.0364892100991</v>
+      </c>
+      <c r="V3">
+        <v>2007.930765822116</v>
+      </c>
+      <c r="W3">
+        <v>164.4392398566827</v>
+      </c>
+      <c r="X3">
+        <v>5312.9884472982</v>
       </c>
     </row>
     <row r="4">
@@ -577,7 +643,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4">
@@ -605,28 +671,46 @@
         <v>0.3207932770364496</v>
       </c>
       <c r="K4">
+        <v>11.19270232389432</v>
+      </c>
+      <c r="L4">
+        <v>2.613440742590047</v>
+      </c>
+      <c r="M4">
+        <v>1.328060111024252</v>
+      </c>
+      <c r="N4">
         <v>2759.254213800511</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>1443.019170503714</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>1716.048329745958</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>1950.72297865327</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>1139.002209651082</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>13966.82989819951</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>254.2252509968571</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>170.4181908335849</v>
+      </c>
+      <c r="V4">
+        <v>1841.79201045663</v>
+      </c>
+      <c r="W4">
+        <v>271.8961538977549</v>
+      </c>
+      <c r="X4">
+        <v>4891.363022122986</v>
       </c>
     </row>
     <row r="5">
@@ -637,7 +721,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C5">
@@ -665,28 +749,46 @@
         <v>0.1014316298762416</v>
       </c>
       <c r="K5">
+        <v>0.08298522455014556</v>
+      </c>
+      <c r="L5">
+        <v>0.09349200143348019</v>
+      </c>
+      <c r="M5">
+        <v>0.2524945901458462</v>
+      </c>
+      <c r="N5">
         <v>323.2216926845007</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>529.8138768532147</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>1033.763725329244</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>270.799902555008</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>467.6409494949171</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>7357.233875892341</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>246.3831317287269</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>160.08163112113</v>
+      </c>
+      <c r="V5">
+        <v>292.9158270876403</v>
+      </c>
+      <c r="W5">
+        <v>93.15419378387131</v>
+      </c>
+      <c r="X5">
+        <v>2907.594824186402</v>
       </c>
     </row>
     <row r="6">
@@ -697,7 +799,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6">
@@ -725,28 +827,46 @@
         <v>-0.2617162817081648</v>
       </c>
       <c r="K6">
+        <v>-0.1429045499827878</v>
+      </c>
+      <c r="L6">
+        <v>-0.1095334574842723</v>
+      </c>
+      <c r="M6">
+        <v>-0.226078907329023</v>
+      </c>
+      <c r="N6">
         <v>193.1846056813076</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>296.8434563418408</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>751.7123512416636</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>164.9230385340258</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>317.461507933668</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>2956.583820880666</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>178.6899004311099</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>96.06837439524921</v>
+      </c>
+      <c r="V6">
+        <v>190.5123680817786</v>
+      </c>
+      <c r="W6">
+        <v>67.74881171210841</v>
+      </c>
+      <c r="X6">
+        <v>1542.441257512375</v>
       </c>
     </row>
     <row r="7">
@@ -757,7 +877,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C7">
@@ -785,28 +905,46 @@
         <v>0.3976288131376215</v>
       </c>
       <c r="K7">
+        <v>5.367636859305019</v>
+      </c>
+      <c r="L7">
+        <v>1.103177178791124</v>
+      </c>
+      <c r="M7">
+        <v>1.57172365005535</v>
+      </c>
+      <c r="N7">
         <v>1370.051746486902</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>1068.050051203158</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>2276.837960072414</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>1163.039301479533</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>859.5358369660077</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>12232.78765817025</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <v>413.7963110600328</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>192.9856762880329</v>
+      </c>
+      <c r="V7">
+        <v>1099.787897798177</v>
+      </c>
+      <c r="W7">
+        <v>167.3489557714933</v>
+      </c>
+      <c r="X7">
+        <v>5883.374137898232</v>
       </c>
     </row>
     <row r="8">
@@ -817,7 +955,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C8">
@@ -845,28 +983,46 @@
         <v>0.01218569058490072</v>
       </c>
       <c r="K8">
+        <v>0.0006516842010123225</v>
+      </c>
+      <c r="L8">
+        <v>0.06214836384810732</v>
+      </c>
+      <c r="M8">
+        <v>0.3275398309893507</v>
+      </c>
+      <c r="N8">
         <v>330.8909441861862</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>502.2826261823112</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>948.3894807505774</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>246.750246634265</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>418.1061419093212</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>7510.76130622046</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <v>241.4646540454536</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>148.7492598280602</v>
+      </c>
+      <c r="V8">
+        <v>288.2406797292243</v>
+      </c>
+      <c r="W8">
+        <v>92.33856090347334</v>
+      </c>
+      <c r="X8">
+        <v>3107.619559098938</v>
       </c>
     </row>
     <row r="9">
@@ -877,7 +1033,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
     </row>
@@ -889,7 +1045,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C10">
@@ -917,28 +1073,46 @@
         <v>0.2245700500212996</v>
       </c>
       <c r="K10">
+        <v>1.724667232595792</v>
+      </c>
+      <c r="L10">
+        <v>4.119578862515288</v>
+      </c>
+      <c r="M10">
+        <v>3.44606800188095</v>
+      </c>
+      <c r="N10">
         <v>1101.574226041245</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>1381.108952643004</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>1721.799387690186</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>760.8397070446075</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>867.4304708847681</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>20786.47167449737</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <v>286.9673209149806</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>167.8589137087748</v>
+      </c>
+      <c r="V10">
+        <v>743.9367330977168</v>
+      </c>
+      <c r="W10">
+        <v>368.2828752690376</v>
+      </c>
+      <c r="X10">
+        <v>8523.483329053011</v>
       </c>
     </row>
     <row r="11">
@@ -949,7 +1123,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C11">
@@ -977,28 +1151,46 @@
         <v>-0.07818790313371787</v>
       </c>
       <c r="K11">
+        <v>-0.1880137456061051</v>
+      </c>
+      <c r="L11">
+        <v>0.8511199979645628</v>
+      </c>
+      <c r="M11">
+        <v>0.3171551105327745</v>
+      </c>
+      <c r="N11">
         <v>271.759595819596</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>559.4025155783231</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>987.2223668331829</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>181.1445586598331</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>461.8608322456144</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>5280.105993849719</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>228.7092763822314</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>134.8135516859047</v>
+      </c>
+      <c r="V11">
+        <v>226.9531394567311</v>
+      </c>
+      <c r="W11">
+        <v>140.6465613188441</v>
+      </c>
+      <c r="X11">
+        <v>2327.188504952599</v>
       </c>
     </row>
     <row r="12">
@@ -1009,7 +1201,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C12">
@@ -1037,28 +1229,46 @@
         <v>0.2495775849843539</v>
       </c>
       <c r="K12">
+        <v>5.433082663705185</v>
+      </c>
+      <c r="L12">
+        <v>2.589744609452958</v>
+      </c>
+      <c r="M12">
+        <v>3.087138599920653</v>
+      </c>
+      <c r="N12">
         <v>2281.415476488025</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>1589.094156984068</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>2367.813285945879</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>1518.226404425491</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>1155.686554414913</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>25455.75708979835</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <v>323.3194426809479</v>
       </c>
-      <c r="R12">
+      <c r="U12">
         <v>167.0502340960317</v>
+      </c>
+      <c r="V12">
+        <v>1535.679237912509</v>
+      </c>
+      <c r="W12">
+        <v>252.3300768626571</v>
+      </c>
+      <c r="X12">
+        <v>9049.91932496383</v>
       </c>
     </row>
     <row r="13">
@@ -1069,7 +1279,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C13">
@@ -1097,28 +1307,46 @@
         <v>0.1353879599154463</v>
       </c>
       <c r="K13">
+        <v>3.490893102319664</v>
+      </c>
+      <c r="L13">
+        <v>1.131588909030947</v>
+      </c>
+      <c r="M13">
+        <v>0.8728132092429017</v>
+      </c>
+      <c r="N13">
         <v>1514.494780354509</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>981.9991891063653</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>1426.958312478952</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <v>1048.626142540307</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>787.961405808688</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>11022.87969774742</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <v>248.8057105047521</v>
       </c>
-      <c r="R13">
+      <c r="U13">
         <v>159.1726384264782</v>
+      </c>
+      <c r="V13">
+        <v>1080.096084872546</v>
+      </c>
+      <c r="W13">
+        <v>170.8198502986555</v>
+      </c>
+      <c r="X13">
+        <v>4287.84755540507</v>
       </c>
     </row>
     <row r="14">
@@ -1129,7 +1357,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C14">
@@ -1157,28 +1385,46 @@
         <v>0.5885892576829198</v>
       </c>
       <c r="K14">
+        <v>8.090798064444336</v>
+      </c>
+      <c r="L14">
+        <v>1.263493907647015</v>
+      </c>
+      <c r="M14">
+        <v>0.3477149538407036</v>
+      </c>
+      <c r="N14">
         <v>2314.657677814926</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>1261.506356386698</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>1250.660203933881</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>1673.823981447177</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>884.4271025813005</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>6283.622676084342</v>
       </c>
-      <c r="Q14">
+      <c r="T14">
         <v>296.232926770573</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <v>224.4171259624228</v>
+      </c>
+      <c r="V14">
+        <v>1615.999059061063</v>
+      </c>
+      <c r="W14">
+        <v>168.3989257962942</v>
+      </c>
+      <c r="X14">
+        <v>2831.196012205148</v>
       </c>
     </row>
     <row r="15">
@@ -1189,7 +1435,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C15">
@@ -1217,28 +1463,46 @@
         <v>0.5021435494326213</v>
       </c>
       <c r="K15">
+        <v>0.008650164458932066</v>
+      </c>
+      <c r="L15">
+        <v>0.3716471428406143</v>
+      </c>
+      <c r="M15">
+        <v>1.022958143748525</v>
+      </c>
+      <c r="N15">
         <v>325.3783125221683</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>500.893157180158</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>961.330111498923</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <v>242.6176188504557</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>441.3178636353562</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <v>10059.79881636455</v>
       </c>
-      <c r="Q15">
+      <c r="T15">
         <v>285.0292095879738</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>198.5512786569955</v>
+      </c>
+      <c r="V15">
+        <v>289.2573267898168</v>
+      </c>
+      <c r="W15">
+        <v>114.3127296923482</v>
+      </c>
+      <c r="X15">
+        <v>4562.389682029423</v>
       </c>
     </row>
     <row r="16">
@@ -1249,7 +1513,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C16">
@@ -1277,28 +1541,46 @@
         <v>-0.07532627688664358</v>
       </c>
       <c r="K16">
+        <v>0.1327819192139505</v>
+      </c>
+      <c r="L16">
+        <v>0.7246880308141892</v>
+      </c>
+      <c r="M16">
+        <v>1.353035015418383</v>
+      </c>
+      <c r="N16">
         <v>409.8686596711564</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>695.258864855648</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>1153.785272388877</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>284.132836697708</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>515.0071361698539</v>
       </c>
-      <c r="P16">
+      <c r="S16">
         <v>13062.75429907703</v>
       </c>
-      <c r="Q16">
+      <c r="T16">
         <v>223.1882055488574</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <v>130.7038681689506</v>
+      </c>
+      <c r="V16">
+        <v>320.0398700592016</v>
+      </c>
+      <c r="W16">
+        <v>138.0533071375945</v>
+      </c>
+      <c r="X16">
+        <v>4845.084557267896</v>
       </c>
     </row>
     <row r="17">
@@ -1309,7 +1591,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C17">
@@ -1337,28 +1619,46 @@
         <v>0.07412404075614681</v>
       </c>
       <c r="K17">
+        <v>0.4580949237458353</v>
+      </c>
+      <c r="L17">
+        <v>0.3403486592684073</v>
+      </c>
+      <c r="M17">
+        <v>0.5951284021360919</v>
+      </c>
+      <c r="N17">
         <v>499.3288073202037</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>655.4283787471031</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <v>1156.758664589048</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <v>387.2275040791113</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <v>499.4835787763428</v>
       </c>
-      <c r="P17">
+      <c r="S17">
         <v>9454.177666696358</v>
       </c>
-      <c r="Q17">
+      <c r="T17">
         <v>249.301079707261</v>
       </c>
-      <c r="R17">
+      <c r="U17">
         <v>155.9095552290154</v>
+      </c>
+      <c r="V17">
+        <v>416.2517983601989</v>
+      </c>
+      <c r="W17">
+        <v>115.8235340636953</v>
+      </c>
+      <c r="X17">
+        <v>3677.071087014819</v>
       </c>
     </row>
     <row r="18">
@@ -1369,7 +1669,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C18">
@@ -1397,28 +1697,46 @@
         <v>0.3284989617377246</v>
       </c>
       <c r="K18">
+        <v>12.78034637192837</v>
+      </c>
+      <c r="L18">
+        <v>1.436370731160975</v>
+      </c>
+      <c r="M18">
+        <v>0.1861150874605626</v>
+      </c>
+      <c r="N18">
         <v>2395.903889686456</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>1187.090679066703</v>
       </c>
-      <c r="M18">
+      <c r="P18">
         <v>1484.355723888378</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>1745.140843430201</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>941.7321279881554</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <v>5634.623775214321</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>284.4353684015013</v>
       </c>
-      <c r="R18">
+      <c r="U18">
         <v>180.2642668791957</v>
+      </c>
+      <c r="V18">
+        <v>1735.139597381134</v>
+      </c>
+      <c r="W18">
+        <v>192.6513116562442</v>
+      </c>
+      <c r="X18">
+        <v>2718.217173570037</v>
       </c>
     </row>
     <row r="19">
@@ -1429,7 +1747,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C19">
@@ -1457,28 +1775,46 @@
         <v>0.1662799959891426</v>
       </c>
       <c r="K19">
+        <v>0.558762819824994</v>
+      </c>
+      <c r="L19">
+        <v>0.6509034858180569</v>
+      </c>
+      <c r="M19">
+        <v>0.1478869468255462</v>
+      </c>
+      <c r="N19">
         <v>585.6656828911188</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>631.7784002138899</v>
       </c>
-      <c r="M19">
+      <c r="P19">
         <v>1122.341851962365</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <v>391.9960522903018</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>568.2292475363452</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <v>6241.09596672491</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <v>255.811675859534</v>
       </c>
-      <c r="R19">
+      <c r="U19">
         <v>172.018425092264</v>
+      </c>
+      <c r="V19">
+        <v>445.4900600527835</v>
+      </c>
+      <c r="W19">
+        <v>132.1669605173099</v>
+      </c>
+      <c r="X19">
+        <v>2677.136527432157</v>
       </c>
     </row>
     <row r="20">
@@ -1489,7 +1825,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C20">
@@ -1517,28 +1853,46 @@
         <v>0.07688916492041113</v>
       </c>
       <c r="K20">
+        <v>9.265668738971737</v>
+      </c>
+      <c r="L20">
+        <v>1.850325661059281</v>
+      </c>
+      <c r="M20">
+        <v>0.6255000564262154</v>
+      </c>
+      <c r="N20">
         <v>2272.695654251297</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>1278.142432337794</v>
       </c>
-      <c r="M20">
+      <c r="P20">
         <v>1697.245008137549</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <v>1631.81030236462</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>933.0353553441597</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <v>9369.466751440219</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <v>279.6205880989713</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>149.7504556396029</v>
+      </c>
+      <c r="V20">
+        <v>1673.543641910555</v>
+      </c>
+      <c r="W20">
+        <v>209.6574216113067</v>
+      </c>
+      <c r="X20">
+        <v>3786.334948787694</v>
       </c>
     </row>
     <row r="21">
@@ -1549,7 +1903,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C21">
@@ -1577,28 +1931,46 @@
         <v>0.08162521302181341</v>
       </c>
       <c r="K21">
+        <v>0.4752839173204463</v>
+      </c>
+      <c r="L21">
+        <v>0.4796849181430348</v>
+      </c>
+      <c r="M21">
+        <v>0.8191917174802388</v>
+      </c>
+      <c r="N21">
         <v>514.0165268384802</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>619.0152143680709</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <v>1366.262194268107</v>
       </c>
-      <c r="N21">
+      <c r="Q21">
         <v>342.1386897464419</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>520.1158492518909</v>
       </c>
-      <c r="P21">
+      <c r="S21">
         <v>10818.85268708173</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <v>236.5523863001163</v>
       </c>
-      <c r="R21">
+      <c r="U21">
         <v>153.7960927942974</v>
+      </c>
+      <c r="V21">
+        <v>412.7583594679804</v>
+      </c>
+      <c r="W21">
+        <v>124.320923314878</v>
+      </c>
+      <c r="X21">
+        <v>3887.073859343707</v>
       </c>
     </row>
     <row r="22">
@@ -1609,7 +1981,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C22">
@@ -1637,28 +2009,46 @@
         <v>0.3099303253447401</v>
       </c>
       <c r="K22">
+        <v>9.677307247059394</v>
+      </c>
+      <c r="L22">
+        <v>2.295712472762461</v>
+      </c>
+      <c r="M22">
+        <v>0.3928324494264978</v>
+      </c>
+      <c r="N22">
         <v>2937.854545364853</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>1431.314322080825</v>
       </c>
-      <c r="M22">
+      <c r="P22">
         <v>1728.301333166716</v>
       </c>
-      <c r="N22">
+      <c r="Q22">
         <v>1882.171670585344</v>
       </c>
-      <c r="O22">
+      <c r="R22">
         <v>1093.875638423279</v>
       </c>
-      <c r="P22">
+      <c r="S22">
         <v>6861.547009745235</v>
       </c>
-      <c r="Q22">
+      <c r="T22">
         <v>273.0035912792255</v>
       </c>
-      <c r="R22">
+      <c r="U22">
         <v>175.693269241969</v>
+      </c>
+      <c r="V22">
+        <v>2017.280791668214</v>
+      </c>
+      <c r="W22">
+        <v>202.6051881048896</v>
+      </c>
+      <c r="X22">
+        <v>3088.885283274677</v>
       </c>
     </row>
     <row r="23">
@@ -1669,7 +2059,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C23">
@@ -1697,28 +2087,46 @@
         <v>-0.09005786413385128</v>
       </c>
       <c r="K23">
+        <v>0.8143843887351045</v>
+      </c>
+      <c r="L23">
+        <v>0.1347989127229686</v>
+      </c>
+      <c r="M23">
+        <v>-0.3549978522862737</v>
+      </c>
+      <c r="N23">
         <v>637.5651030680664</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>632.5147184696485</v>
       </c>
-      <c r="M23">
+      <c r="P23">
         <v>1082.494560658113</v>
       </c>
-      <c r="N23">
+      <c r="Q23">
         <v>429.8168316633848</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <v>535.8964191185567</v>
       </c>
-      <c r="P23">
+      <c r="S23">
         <v>3069.577199433737</v>
       </c>
-      <c r="Q23">
+      <c r="T23">
         <v>222.723066003248</v>
       </c>
-      <c r="R23">
+      <c r="U23">
         <v>134.8091604398882</v>
+      </c>
+      <c r="V23">
+        <v>512.8970813315815</v>
+      </c>
+      <c r="W23">
+        <v>94.22077796985413</v>
+      </c>
+      <c r="X23">
+        <v>1477.256630686801</v>
       </c>
     </row>
     <row r="24">
@@ -1729,7 +2137,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C24">
@@ -1757,28 +2165,46 @@
         <v>0.03126034544570126</v>
       </c>
       <c r="K24">
+        <v>1.126050654252567</v>
+      </c>
+      <c r="L24">
+        <v>1.251368470138523</v>
+      </c>
+      <c r="M24">
+        <v>0.2165004431086702</v>
+      </c>
+      <c r="N24">
         <v>799.2528409370996</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>766.7439782963395</v>
       </c>
-      <c r="M24">
+      <c r="P24">
         <v>1269.662264487247</v>
       </c>
-      <c r="N24">
+      <c r="Q24">
         <v>552.360108473375</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>661.5853519262652</v>
       </c>
-      <c r="P24">
+      <c r="S24">
         <v>5321.515304389917</v>
       </c>
-      <c r="Q24">
+      <c r="T24">
         <v>236.6623449767736</v>
       </c>
-      <c r="R24">
+      <c r="U24">
         <v>144.6495712596824</v>
+      </c>
+      <c r="V24">
+        <v>596.2631382090476</v>
+      </c>
+      <c r="W24">
+        <v>168.2554887729626</v>
+      </c>
+      <c r="X24">
+        <v>2534.965494205943</v>
       </c>
     </row>
     <row r="25">
@@ -1789,7 +2215,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C25">
@@ -1817,28 +2243,46 @@
         <v>0.4076821061981323</v>
       </c>
       <c r="K25">
+        <v>16.70388450024288</v>
+      </c>
+      <c r="L25">
+        <v>1.485454473493128</v>
+      </c>
+      <c r="M25">
+        <v>0.1145251398474708</v>
+      </c>
+      <c r="N25">
         <v>2825.068568696799</v>
       </c>
-      <c r="L25">
+      <c r="O25">
         <v>1314.254074784011</v>
       </c>
-      <c r="M25">
+      <c r="P25">
         <v>1554.017446055443</v>
       </c>
-      <c r="N25">
+      <c r="Q25">
         <v>1940.893398163057</v>
       </c>
-      <c r="O25">
+      <c r="R25">
         <v>1028.878256913122</v>
       </c>
-      <c r="P25">
+      <c r="S25">
         <v>4931.215988920078</v>
       </c>
-      <c r="Q25">
+      <c r="T25">
         <v>257.1597734864803</v>
       </c>
-      <c r="R25">
+      <c r="U25">
         <v>170.5710530838363</v>
+      </c>
+      <c r="V25">
+        <v>2203.830370764521</v>
+      </c>
+      <c r="W25">
+        <v>184.5368420517242</v>
+      </c>
+      <c r="X25">
+        <v>2455.098998874063</v>
       </c>
     </row>
     <row r="26">
@@ -1849,7 +2293,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C26">
@@ -1877,28 +2321,46 @@
         <v>0.2661137428750955</v>
       </c>
       <c r="K26">
+        <v>5.186182073647332</v>
+      </c>
+      <c r="L26">
+        <v>1.672641119245849</v>
+      </c>
+      <c r="M26">
+        <v>0.6601520954918468</v>
+      </c>
+      <c r="N26">
         <v>2134.43982541212</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>1117.889326102384</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>1541.899760050536</v>
       </c>
-      <c r="N26">
+      <c r="Q26">
         <v>1413.136552438486</v>
       </c>
-      <c r="O26">
+      <c r="R26">
         <v>871.6184116432667</v>
       </c>
-      <c r="P26">
+      <c r="S26">
         <v>10616.50794991243</v>
       </c>
-      <c r="Q26">
+      <c r="T26">
         <v>249.8113553016436</v>
       </c>
-      <c r="R26">
+      <c r="U26">
         <v>172.906872738639</v>
+      </c>
+      <c r="V26">
+        <v>1424.347556216599</v>
+      </c>
+      <c r="W26">
+        <v>207.2880429902489</v>
+      </c>
+      <c r="X26">
+        <v>3662.247416780932</v>
       </c>
     </row>
     <row r="27">
@@ -1909,7 +2371,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C27">
@@ -1937,28 +2399,46 @@
         <v>0.1877458414801274</v>
       </c>
       <c r="K27">
+        <v>2.576520653670315</v>
+      </c>
+      <c r="L27">
+        <v>1.061581199006121</v>
+      </c>
+      <c r="M27">
+        <v>-0.04465178335600962</v>
+      </c>
+      <c r="N27">
         <v>1227.00920953269</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>750.1771434328655</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>1078.057276998107</v>
       </c>
-      <c r="N27">
+      <c r="Q27">
         <v>811.8467707314641</v>
       </c>
-      <c r="O27">
+      <c r="R27">
         <v>677.202671674765</v>
       </c>
-      <c r="P27">
+      <c r="S27">
         <v>5233.922218907511</v>
       </c>
-      <c r="Q27">
+      <c r="T27">
         <v>224.4484898957188</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <v>173.1834375419172</v>
+      </c>
+      <c r="V27">
+        <v>855.8058381510392</v>
+      </c>
+      <c r="W27">
+        <v>169.2239693138847</v>
+      </c>
+      <c r="X27">
+        <v>2138.843025603387</v>
       </c>
     </row>
     <row r="28">
@@ -1969,7 +2449,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C28">
@@ -1997,28 +2477,46 @@
         <v>0.08276336920223544</v>
       </c>
       <c r="K28">
+        <v>0.1596806649261429</v>
+      </c>
+      <c r="L28">
+        <v>1.081101109912892</v>
+      </c>
+      <c r="M28">
+        <v>0.3301890190901812</v>
+      </c>
+      <c r="N28">
         <v>433.4881703935004</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>659.4182244668507</v>
       </c>
-      <c r="M28">
+      <c r="P28">
         <v>1128.967251822399</v>
       </c>
-      <c r="N28">
+      <c r="Q28">
         <v>293.8039571273503</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>519.3868511687109</v>
       </c>
-      <c r="P28">
+      <c r="S28">
         <v>5864.592888473469</v>
       </c>
-      <c r="Q28">
+      <c r="T28">
         <v>229.3107662672966</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <v>151.5246099047885</v>
+      </c>
+      <c r="V28">
+        <v>336.8950033767551</v>
+      </c>
+      <c r="W28">
+        <v>159.3917831125723</v>
+      </c>
+      <c r="X28">
+        <v>2593.525729825565</v>
       </c>
     </row>
     <row r="29">
@@ -2029,7 +2527,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C29">
@@ -2057,28 +2555,46 @@
         <v>0.7814967341987583</v>
       </c>
       <c r="K29">
+        <v>20.1308027406065</v>
+      </c>
+      <c r="L29">
+        <v>5.524596419093391</v>
+      </c>
+      <c r="M29">
+        <v>0.7633376882570736</v>
+      </c>
+      <c r="N29">
         <v>3776.207560159188</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <v>1931.966229868697</v>
       </c>
-      <c r="M29">
+      <c r="P29">
         <v>1847.114786207425</v>
       </c>
-      <c r="N29">
+      <c r="Q29">
         <v>2627.173398603046</v>
       </c>
-      <c r="O29">
+      <c r="R29">
         <v>1440.574994918072</v>
       </c>
-      <c r="P29">
+      <c r="S29">
         <v>7937.796094185645</v>
       </c>
-      <c r="Q29">
+      <c r="T29">
         <v>305.0598534637596</v>
       </c>
-      <c r="R29">
+      <c r="U29">
         <v>215.2926776989417</v>
+      </c>
+      <c r="V29">
+        <v>2638.045901845818</v>
+      </c>
+      <c r="W29">
+        <v>412.5566849849386</v>
+      </c>
+      <c r="X29">
+        <v>3388.529769333931</v>
       </c>
     </row>
     <row r="30">
@@ -2089,7 +2605,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C30">
@@ -2117,28 +2633,46 @@
         <v>0.3140124346534445</v>
       </c>
       <c r="K30">
+        <v>9.767384660638042</v>
+      </c>
+      <c r="L30">
+        <v>1.931250694301245</v>
+      </c>
+      <c r="M30">
+        <v>0.3252824519376653</v>
+      </c>
+      <c r="N30">
         <v>3106.062452000145</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>1556.033906964041</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <v>1593.320655480549</v>
       </c>
-      <c r="N30">
+      <c r="Q30">
         <v>2010.366085986865</v>
       </c>
-      <c r="O30">
+      <c r="R30">
         <v>1062.610771464213</v>
       </c>
-      <c r="P30">
+      <c r="S30">
         <v>8087.792190562583</v>
       </c>
-      <c r="Q30">
+      <c r="T30">
         <v>236.0278040218136</v>
       </c>
-      <c r="R30">
+      <c r="U30">
         <v>176.5401622715965</v>
+      </c>
+      <c r="V30">
+        <v>2272.639590921806</v>
+      </c>
+      <c r="W30">
+        <v>221.2275310864947</v>
+      </c>
+      <c r="X30">
+        <v>2969.777942041299</v>
       </c>
     </row>
     <row r="31">
@@ -2149,7 +2683,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C31">
@@ -2177,28 +2711,46 @@
         <v>-0.03929399269636942</v>
       </c>
       <c r="K31">
+        <v>0.2677520796819326</v>
+      </c>
+      <c r="L31">
+        <v>0.2299249331232484</v>
+      </c>
+      <c r="M31">
+        <v>-0.1657767532490727</v>
+      </c>
+      <c r="N31">
         <v>466.0186753489054</v>
       </c>
-      <c r="L31">
+      <c r="O31">
         <v>491.0949368912478</v>
       </c>
-      <c r="M31">
+      <c r="P31">
         <v>890.4264773449116</v>
       </c>
-      <c r="N31">
+      <c r="Q31">
         <v>321.7654522377534</v>
       </c>
-      <c r="O31">
+      <c r="R31">
         <v>465.967683909825</v>
       </c>
-      <c r="P31">
+      <c r="S31">
         <v>4459.751753144623</v>
       </c>
-      <c r="Q31">
+      <c r="T31">
         <v>213.3039253710668</v>
       </c>
-      <c r="R31">
+      <c r="U31">
         <v>139.2415957663878</v>
+      </c>
+      <c r="V31">
+        <v>360.8588512849875</v>
+      </c>
+      <c r="W31">
+        <v>105.8853146446978</v>
+      </c>
+      <c r="X31">
+        <v>1898.898244552019</v>
       </c>
     </row>
     <row r="32">
@@ -2209,7 +2761,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C32">
@@ -2237,28 +2789,46 @@
         <v>0.4423069266967588</v>
       </c>
       <c r="K32">
+        <v>17.38915067445289</v>
+      </c>
+      <c r="L32">
+        <v>1.555162645290538</v>
+      </c>
+      <c r="M32">
+        <v>-0.1308028260836987</v>
+      </c>
+      <c r="N32">
         <v>2615.711064259544</v>
       </c>
-      <c r="L32">
+      <c r="O32">
         <v>1313.461623841821</v>
       </c>
-      <c r="M32">
+      <c r="P32">
         <v>1563.104027537588</v>
       </c>
-      <c r="N32">
+      <c r="Q32">
         <v>2044.161339331669</v>
       </c>
-      <c r="O32">
+      <c r="R32">
         <v>1048.014594919088</v>
       </c>
-      <c r="P32">
+      <c r="S32">
         <v>3886.180676926429</v>
       </c>
-      <c r="Q32">
+      <c r="T32">
         <v>289.4153368210521</v>
       </c>
-      <c r="R32">
+      <c r="U32">
         <v>203.5463771634746</v>
+      </c>
+      <c r="V32">
+        <v>1943.263338356512</v>
+      </c>
+      <c r="W32">
+        <v>192.2541067883676</v>
+      </c>
+      <c r="X32">
+        <v>1954.791631067583</v>
       </c>
     </row>
     <row r="33">
@@ -2269,7 +2839,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C33">
@@ -2297,28 +2867,46 @@
         <v>-0.02784032545615012</v>
       </c>
       <c r="K33">
+        <v>-0.04757152799131893</v>
+      </c>
+      <c r="L33">
+        <v>0.2803171968058182</v>
+      </c>
+      <c r="M33">
+        <v>0.37615864992176</v>
+      </c>
+      <c r="N33">
         <v>313.9349810858504</v>
       </c>
-      <c r="L33">
+      <c r="O33">
         <v>452.1689072633548</v>
       </c>
-      <c r="M33">
+      <c r="P33">
         <v>1017.574051695006</v>
       </c>
-      <c r="N33">
+      <c r="Q33">
         <v>212.8157950320271</v>
       </c>
-      <c r="O33">
+      <c r="R33">
         <v>447.9012237054345</v>
       </c>
-      <c r="P33">
+      <c r="S33">
         <v>5309.936478739521</v>
       </c>
-      <c r="Q33">
+      <c r="T33">
         <v>224.9068095558027</v>
       </c>
-      <c r="R33">
+      <c r="U33">
         <v>129.9539166221838</v>
+      </c>
+      <c r="V33">
+        <v>257.6497301611107</v>
+      </c>
+      <c r="W33">
+        <v>106.3522591089556</v>
+      </c>
+      <c r="X33">
+        <v>2715.653636684691</v>
       </c>
     </row>
     <row r="34">
@@ -2329,7 +2917,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C34">
@@ -2357,28 +2945,46 @@
         <v>0.5513439315024767</v>
       </c>
       <c r="K34">
+        <v>-0.001382094221349413</v>
+      </c>
+      <c r="L34">
+        <v>0.7769867490162593</v>
+      </c>
+      <c r="M34">
+        <v>0.7034270839517995</v>
+      </c>
+      <c r="N34">
         <v>269.3609140260731</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <v>573.107614138345</v>
       </c>
-      <c r="M34">
+      <c r="P34">
         <v>977.8714104163133</v>
       </c>
-      <c r="N34">
+      <c r="Q34">
         <v>206.1287752236767</v>
       </c>
-      <c r="O34">
+      <c r="R34">
         <v>485.5324846933917</v>
       </c>
-      <c r="P34">
+      <c r="S34">
         <v>8409.014516735131</v>
       </c>
-      <c r="Q34">
+      <c r="T34">
         <v>328.7518504274673</v>
       </c>
-      <c r="R34">
+      <c r="U34">
         <v>198.8065996744713</v>
+      </c>
+      <c r="V34">
+        <v>258.7694509635472</v>
+      </c>
+      <c r="W34">
+        <v>148.2925614529568</v>
+      </c>
+      <c r="X34">
+        <v>3588.276602430054</v>
       </c>
     </row>
     <row r="35">
@@ -2389,7 +2995,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C35">
@@ -2417,28 +3023,46 @@
         <v>0.5233196003220327</v>
       </c>
       <c r="K35">
+        <v>14.71117125435107</v>
+      </c>
+      <c r="L35">
+        <v>3.622335343745511</v>
+      </c>
+      <c r="M35">
+        <v>0.6868622105589414</v>
+      </c>
+      <c r="N35">
         <v>3621.839865487611</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>1642.074732138347</v>
       </c>
-      <c r="M35">
+      <c r="P35">
         <v>1693.0336792015</v>
       </c>
-      <c r="N35">
+      <c r="Q35">
         <v>2481.874072852112</v>
       </c>
-      <c r="O35">
+      <c r="R35">
         <v>1215.503913450316</v>
       </c>
-      <c r="P35">
+      <c r="S35">
         <v>7646.541448591729</v>
       </c>
-      <c r="Q35">
+      <c r="T35">
         <v>248.3683808199186</v>
       </c>
-      <c r="R35">
+      <c r="U35">
         <v>189.9500097749468</v>
+      </c>
+      <c r="V35">
+        <v>2426.73280668676</v>
+      </c>
+      <c r="W35">
+        <v>316.5890889470157</v>
+      </c>
+      <c r="X35">
+        <v>3054.57944857068</v>
       </c>
     </row>
     <row r="36">
@@ -2449,7 +3073,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C36">
@@ -2477,28 +3101,46 @@
         <v>1.671963922322597</v>
       </c>
       <c r="K36">
+        <v>2.981974922049765</v>
+      </c>
+      <c r="L36">
+        <v>1.185118025464321</v>
+      </c>
+      <c r="M36">
+        <v>-0.04548633055594573</v>
+      </c>
+      <c r="N36">
         <v>1113.417389008471</v>
       </c>
-      <c r="L36">
+      <c r="O36">
         <v>719.0697825749763</v>
       </c>
-      <c r="M36">
+      <c r="P36">
         <v>1153.164056012696</v>
       </c>
-      <c r="N36">
+      <c r="Q36">
         <v>982.826599416524</v>
       </c>
-      <c r="O36">
+      <c r="R36">
         <v>673.4044198791217</v>
       </c>
-      <c r="P36">
+      <c r="S36">
         <v>4957.48072821192</v>
       </c>
-      <c r="Q36">
+      <c r="T36">
         <v>387.2850221430938</v>
       </c>
-      <c r="R36">
+      <c r="U36">
         <v>299.6508894564567</v>
+      </c>
+      <c r="V36">
+        <v>918.5574479909731</v>
+      </c>
+      <c r="W36">
+        <v>172.6910220481323</v>
+      </c>
+      <c r="X36">
+        <v>2231.092098327447</v>
       </c>
     </row>
     <row r="37">
@@ -2509,7 +3151,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C37">
@@ -2537,28 +3179,46 @@
         <v>0.7003031481652723</v>
       </c>
       <c r="K37">
+        <v>5.024771822306245</v>
+      </c>
+      <c r="L37">
+        <v>0.7490237040279792</v>
+      </c>
+      <c r="M37">
+        <v>2.599692021774172</v>
+      </c>
+      <c r="N37">
         <v>1644.21887788606</v>
       </c>
-      <c r="L37">
+      <c r="O37">
         <v>1104.565395288357</v>
       </c>
-      <c r="M37">
+      <c r="P37">
         <v>1926.810395678205</v>
       </c>
-      <c r="N37">
+      <c r="Q37">
         <v>1113.853773597951</v>
       </c>
-      <c r="O37">
+      <c r="R37">
         <v>851.5558417625703</v>
       </c>
-      <c r="P37">
+      <c r="S37">
         <v>12605.36039148739</v>
       </c>
-      <c r="Q37">
+      <c r="T37">
         <v>364.8818053759368</v>
       </c>
-      <c r="R37">
+      <c r="U37">
         <v>234.6478980588282</v>
+      </c>
+      <c r="V37">
+        <v>1281.259916848357</v>
+      </c>
+      <c r="W37">
+        <v>135.3125504721624</v>
+      </c>
+      <c r="X37">
+        <v>7230.186343187596</v>
       </c>
     </row>
     <row r="38">
@@ -2569,7 +3229,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C38">
@@ -2597,28 +3257,46 @@
         <v>0.2769405879362156</v>
       </c>
       <c r="K38">
+        <v>0.3619902606979604</v>
+      </c>
+      <c r="L38">
+        <v>0.2279470394972628</v>
+      </c>
+      <c r="M38">
+        <v>1.080617889022278</v>
+      </c>
+      <c r="N38">
         <v>454.240246808014</v>
       </c>
-      <c r="L38">
+      <c r="O38">
         <v>511.3774853617308</v>
       </c>
-      <c r="M38">
+      <c r="P38">
         <v>1189.75405670738</v>
       </c>
-      <c r="N38">
+      <c r="Q38">
         <v>389.8256847098988</v>
       </c>
-      <c r="O38">
+      <c r="R38">
         <v>487.5901743951237</v>
       </c>
-      <c r="P38">
+      <c r="S38">
         <v>11500.61271670942</v>
       </c>
-      <c r="Q38">
+      <c r="T38">
         <v>290.163051573939</v>
       </c>
-      <c r="R38">
+      <c r="U38">
         <v>182.8843058023837</v>
+      </c>
+      <c r="V38">
+        <v>385.3723989897849</v>
+      </c>
+      <c r="W38">
+        <v>106.895111510008</v>
+      </c>
+      <c r="X38">
+        <v>4806.550194481092</v>
       </c>
     </row>
     <row r="39">
@@ -2629,7 +3307,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C39">
@@ -2657,28 +3335,46 @@
         <v>0.8510089419365097</v>
       </c>
       <c r="K39">
+        <v>4.649994250216982</v>
+      </c>
+      <c r="L39">
+        <v>1.870361975530628</v>
+      </c>
+      <c r="M39">
+        <v>-0.1334338852445371</v>
+      </c>
+      <c r="N39">
         <v>1590.402932878797</v>
       </c>
-      <c r="L39">
+      <c r="O39">
         <v>910.0973007525246</v>
       </c>
-      <c r="M39">
+      <c r="P39">
         <v>1211.612720985579</v>
       </c>
-      <c r="N39">
+      <c r="Q39">
         <v>1254.53372238463</v>
       </c>
-      <c r="O39">
+      <c r="R39">
         <v>866.7088159430973</v>
       </c>
-      <c r="P39">
+      <c r="S39">
         <v>4824.235975161433</v>
       </c>
-      <c r="Q39">
+      <c r="T39">
         <v>344.6361982418499</v>
       </c>
-      <c r="R39">
+      <c r="U39">
         <v>231.1241967545985</v>
+      </c>
+      <c r="V39">
+        <v>1161.540944566692</v>
+      </c>
+      <c r="W39">
+        <v>219.8925288354614</v>
+      </c>
+      <c r="X39">
+        <v>1996.600635613973</v>
       </c>
     </row>
     <row r="40">
@@ -2689,7 +3385,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C40">
@@ -2717,28 +3413,46 @@
         <v>0.3027444177028054</v>
       </c>
       <c r="K40">
+        <v>5.655858442475473</v>
+      </c>
+      <c r="L40">
+        <v>1.262076760617139</v>
+      </c>
+      <c r="M40">
+        <v>0.5337887535053472</v>
+      </c>
+      <c r="N40">
         <v>2365.385334717426</v>
       </c>
-      <c r="L40">
+      <c r="O40">
         <v>1294.337614467119</v>
       </c>
-      <c r="M40">
+      <c r="P40">
         <v>1869.15171387214</v>
       </c>
-      <c r="N40">
+      <c r="Q40">
         <v>1484.782022605425</v>
       </c>
-      <c r="O40">
+      <c r="R40">
         <v>979.589055036947</v>
       </c>
-      <c r="P40">
+      <c r="S40">
         <v>8075.250987570153</v>
       </c>
-      <c r="Q40">
+      <c r="T40">
         <v>311.5267594740368</v>
       </c>
-      <c r="R40">
+      <c r="U40">
         <v>182.6773841644366</v>
+      </c>
+      <c r="V40">
+        <v>1604.724303533791</v>
+      </c>
+      <c r="W40">
+        <v>167.0909006524738</v>
+      </c>
+      <c r="X40">
+        <v>3599.141407781075</v>
       </c>
     </row>
     <row r="41">
@@ -2749,7 +3463,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C41">
@@ -2777,28 +3491,46 @@
         <v>0.003630383075560592</v>
       </c>
       <c r="K41">
+        <v>-0.2592538421169376</v>
+      </c>
+      <c r="L41">
+        <v>0.0464771947350704</v>
+      </c>
+      <c r="M41">
+        <v>-0.3100033146554242</v>
+      </c>
+      <c r="N41">
         <v>216.0942758937425</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <v>365.1784149672643</v>
       </c>
-      <c r="M41">
+      <c r="P41">
         <v>771.7534429573705</v>
       </c>
-      <c r="N41">
+      <c r="Q41">
         <v>170.3236822592834</v>
       </c>
-      <c r="O41">
+      <c r="R41">
         <v>356.317536352922</v>
       </c>
-      <c r="P41">
+      <c r="S41">
         <v>2839.985648450758</v>
       </c>
-      <c r="Q41">
+      <c r="T41">
         <v>217.4637134707882</v>
       </c>
-      <c r="R41">
+      <c r="U41">
         <v>141.0647406436261</v>
+      </c>
+      <c r="V41">
+        <v>200.7314518713225</v>
+      </c>
+      <c r="W41">
+        <v>88.05555926538155</v>
+      </c>
+      <c r="X41">
+        <v>1476.349893499765</v>
       </c>
     </row>
     <row r="42">
@@ -2809,7 +3541,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C42">
@@ -2837,28 +3569,46 @@
         <v>0.4855180329070936</v>
       </c>
       <c r="K42">
+        <v>4.647400032732868</v>
+      </c>
+      <c r="L42">
+        <v>1.113029558452336</v>
+      </c>
+      <c r="M42">
+        <v>0.3196096593980123</v>
+      </c>
+      <c r="N42">
         <v>1540.128465937451</v>
       </c>
-      <c r="L42">
+      <c r="O42">
         <v>788.9325403828653</v>
       </c>
-      <c r="M42">
+      <c r="P42">
         <v>1422.310375646395</v>
       </c>
-      <c r="N42">
+      <c r="Q42">
         <v>1089.072904204111</v>
       </c>
-      <c r="O42">
+      <c r="R42">
         <v>720.6948157378359</v>
       </c>
-      <c r="P42">
+      <c r="S42">
         <v>5346.77229391835</v>
       </c>
-      <c r="Q42">
+      <c r="T42">
         <v>314.9265082006075</v>
       </c>
-      <c r="R42">
+      <c r="U42">
         <v>206.0814865141668</v>
+      </c>
+      <c r="V42">
+        <v>1123.119593458889</v>
+      </c>
+      <c r="W42">
+        <v>153.7564815286366</v>
+      </c>
+      <c r="X42">
+        <v>2825.243627517893</v>
       </c>
     </row>
     <row r="43">
@@ -2869,7 +3619,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C43">
@@ -2897,28 +3647,46 @@
         <v>0.1038617039797296</v>
       </c>
       <c r="K43">
+        <v>-0.01858840040352818</v>
+      </c>
+      <c r="L43">
+        <v>0.1889514367443297</v>
+      </c>
+      <c r="M43">
+        <v>-0.04821188171485237</v>
+      </c>
+      <c r="N43">
         <v>288.6425441287706</v>
       </c>
-      <c r="L43">
+      <c r="O43">
         <v>464.1538737607646</v>
       </c>
-      <c r="M43">
+      <c r="P43">
         <v>894.9174290264596</v>
       </c>
-      <c r="N43">
+      <c r="Q43">
         <v>259.5706449381724</v>
       </c>
-      <c r="O43">
+      <c r="R43">
         <v>400.7363414921841</v>
       </c>
-      <c r="P43">
+      <c r="S43">
         <v>5143.09591404132</v>
       </c>
-      <c r="Q43">
+      <c r="T43">
         <v>259.2983736039911</v>
       </c>
-      <c r="R43">
+      <c r="U43">
         <v>157.959108854698</v>
+      </c>
+      <c r="V43">
+        <v>267.2826700469953</v>
+      </c>
+      <c r="W43">
+        <v>101.8120737016158</v>
+      </c>
+      <c r="X43">
+        <v>2233.702380169401</v>
       </c>
     </row>
     <row r="44">
@@ -2929,7 +3697,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C44">
@@ -2957,28 +3725,46 @@
         <v>-0.03853088122342083</v>
       </c>
       <c r="K44">
+        <v>-0.2973967521649243</v>
+      </c>
+      <c r="L44">
+        <v>-0.03684193825146681</v>
+      </c>
+      <c r="M44">
+        <v>-0.1105018274733262</v>
+      </c>
+      <c r="N44">
         <v>209.1952191283796</v>
       </c>
-      <c r="L44">
+      <c r="O44">
         <v>416.633114897212</v>
       </c>
-      <c r="M44">
+      <c r="P44">
         <v>875.3602881055605</v>
       </c>
-      <c r="N44">
+      <c r="Q44">
         <v>142.7374488917392</v>
       </c>
-      <c r="O44">
+      <c r="R44">
         <v>340.613036255545</v>
       </c>
-      <c r="P44">
+      <c r="S44">
         <v>5084.573642227786</v>
       </c>
-      <c r="Q44">
+      <c r="T44">
         <v>229.7999478615299</v>
       </c>
-      <c r="R44">
+      <c r="U44">
         <v>140.0860287507521</v>
+      </c>
+      <c r="V44">
+        <v>190.2351843558924</v>
+      </c>
+      <c r="W44">
+        <v>82.66348736554093</v>
+      </c>
+      <c r="X44">
+        <v>2077.243390957539</v>
       </c>
     </row>
     <row r="45">
@@ -2989,7 +3775,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C45">
@@ -3017,28 +3803,46 @@
         <v>0.03375915463126739</v>
       </c>
       <c r="K45">
+        <v>-0.2738180399421186</v>
+      </c>
+      <c r="L45">
+        <v>-0.01356851901997526</v>
+      </c>
+      <c r="M45">
+        <v>0.4218511778924087</v>
+      </c>
+      <c r="N45">
         <v>216.1347441174957</v>
       </c>
-      <c r="L45">
+      <c r="O45">
         <v>443.774085453583</v>
       </c>
-      <c r="M45">
+      <c r="P45">
         <v>979.4942402276076</v>
       </c>
-      <c r="N45">
+      <c r="Q45">
         <v>167.6700977220063</v>
       </c>
-      <c r="O45">
+      <c r="R45">
         <v>373.0330100966503</v>
       </c>
-      <c r="P45">
+      <c r="S45">
         <v>7688.572093389653</v>
       </c>
-      <c r="Q45">
+      <c r="T45">
         <v>249.5644631316524</v>
       </c>
-      <c r="R45">
+      <c r="U45">
         <v>149.0511831373644</v>
+      </c>
+      <c r="V45">
+        <v>200.9010490660793</v>
+      </c>
+      <c r="W45">
+        <v>82.76956163835389</v>
+      </c>
+      <c r="X45">
+        <v>3286.55372004345</v>
       </c>
     </row>
     <row r="46">
@@ -3049,7 +3853,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C46">
@@ -3077,28 +3881,46 @@
         <v>-0.04579974589274657</v>
       </c>
       <c r="K46">
+        <v>-0.05501031520245524</v>
+      </c>
+      <c r="L46">
+        <v>0.4059334201388263</v>
+      </c>
+      <c r="M46">
+        <v>0.3980642713475143</v>
+      </c>
+      <c r="N46">
         <v>272.4015649228922</v>
       </c>
-      <c r="L46">
+      <c r="O46">
         <v>473.7165739611416</v>
       </c>
-      <c r="M46">
+      <c r="P46">
         <v>1138.16221450414</v>
       </c>
-      <c r="N46">
+      <c r="Q46">
         <v>222.1139541988721</v>
       </c>
-      <c r="O46">
+      <c r="R46">
         <v>421.8591331088921</v>
       </c>
-      <c r="P46">
+      <c r="S46">
         <v>7683.989687643189</v>
       </c>
-      <c r="Q46">
+      <c r="T46">
         <v>256.1881395403873</v>
       </c>
-      <c r="R46">
+      <c r="U46">
         <v>137.9422515630777</v>
+      </c>
+      <c r="V46">
+        <v>255.6821302494021</v>
+      </c>
+      <c r="W46">
+        <v>116.378816941686</v>
+      </c>
+      <c r="X46">
+        <v>3282.714438826642</v>
       </c>
     </row>
     <row r="47">
@@ -3109,7 +3931,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C47">
@@ -3137,28 +3959,46 @@
         <v>0.4548634496215055</v>
       </c>
       <c r="K47">
+        <v>11.61312973410605</v>
+      </c>
+      <c r="L47">
+        <v>2.450967059002048</v>
+      </c>
+      <c r="M47">
+        <v>0.2652188161453019</v>
+      </c>
+      <c r="N47">
         <v>3754.886491003697</v>
       </c>
-      <c r="L47">
+      <c r="O47">
         <v>1552.416415951103</v>
       </c>
-      <c r="M47">
+      <c r="P47">
         <v>1758.624718496077</v>
       </c>
-      <c r="N47">
+      <c r="Q47">
         <v>2276.553168806361</v>
       </c>
-      <c r="O47">
+      <c r="R47">
         <v>1167.600357064059</v>
       </c>
-      <c r="P47">
+      <c r="S47">
         <v>6953.036488752655</v>
       </c>
-      <c r="Q47">
+      <c r="T47">
         <v>276.6637605127317</v>
       </c>
-      <c r="R47">
+      <c r="U47">
         <v>205.1678970304484</v>
+      </c>
+      <c r="V47">
+        <v>2484.743323026361</v>
+      </c>
+      <c r="W47">
+        <v>251.494235171448</v>
+      </c>
+      <c r="X47">
+        <v>2964.228484410858</v>
       </c>
     </row>
     <row r="48">
@@ -3169,7 +4009,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C48">
@@ -3197,28 +4037,46 @@
         <v>0.3759863711158326</v>
       </c>
       <c r="K48">
+        <v>10.88946303061876</v>
+      </c>
+      <c r="L48">
+        <v>3.469661159499931</v>
+      </c>
+      <c r="M48">
+        <v>0.4251608857280555</v>
+      </c>
+      <c r="N48">
         <v>3319.716222593072</v>
       </c>
-      <c r="L48">
+      <c r="O48">
         <v>1479.252625467673</v>
       </c>
-      <c r="M48">
+      <c r="P48">
         <v>1765.34732663192</v>
       </c>
-      <c r="N48">
+      <c r="Q48">
         <v>2085.741439636782</v>
       </c>
-      <c r="O48">
+      <c r="R48">
         <v>1167.550047948987</v>
       </c>
-      <c r="P48">
+      <c r="S48">
         <v>6821.117201293558</v>
       </c>
-      <c r="Q48">
+      <c r="T48">
         <v>268.9912134567161</v>
       </c>
-      <c r="R48">
+      <c r="U48">
         <v>176.8292907340586</v>
+      </c>
+      <c r="V48">
+        <v>2245.407659471472</v>
+      </c>
+      <c r="W48">
+        <v>249.3406757782563</v>
+      </c>
+      <c r="X48">
+        <v>3040.370634559456</v>
       </c>
     </row>
     <row r="49">
@@ -3229,7 +4087,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C49">
@@ -3257,28 +4115,46 @@
         <v>0.1386925555986804</v>
       </c>
       <c r="K49">
+        <v>2.339066635994961</v>
+      </c>
+      <c r="L49">
+        <v>0.7837029418463036</v>
+      </c>
+      <c r="M49">
+        <v>1.167908503758755</v>
+      </c>
+      <c r="N49">
         <v>1275.92280111801</v>
       </c>
-      <c r="L49">
+      <c r="O49">
         <v>879.5971715476624</v>
       </c>
-      <c r="M49">
+      <c r="P49">
         <v>1598.354340369764</v>
       </c>
-      <c r="N49">
+      <c r="Q49">
         <v>819.2334613680396</v>
       </c>
-      <c r="O49">
+      <c r="R49">
         <v>714.2226046994482</v>
       </c>
-      <c r="P49">
+      <c r="S49">
         <v>12163.10912364916</v>
       </c>
-      <c r="Q49">
+      <c r="T49">
         <v>263.6948530984869</v>
       </c>
-      <c r="R49">
+      <c r="U49">
         <v>164.7516350330804</v>
+      </c>
+      <c r="V49">
+        <v>868.897445892876</v>
+      </c>
+      <c r="W49">
+        <v>144.7374368070854</v>
+      </c>
+      <c r="X49">
+        <v>5080.371706984224</v>
       </c>
     </row>
     <row r="50">
@@ -3289,7 +4165,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C50">
@@ -3317,28 +4193,46 @@
         <v>3.099729645512336</v>
       </c>
       <c r="K50">
+        <v>9.377489696821192</v>
+      </c>
+      <c r="L50">
+        <v>4.348651290422301</v>
+      </c>
+      <c r="M50">
+        <v>0.9992845524557459</v>
+      </c>
+      <c r="N50">
         <v>1939.77757406541</v>
       </c>
-      <c r="L50">
+      <c r="O50">
         <v>1148.963565988828</v>
       </c>
-      <c r="M50">
+      <c r="P50">
         <v>1380.05653436903</v>
       </c>
-      <c r="N50">
+      <c r="Q50">
         <v>1870.760835455293</v>
       </c>
-      <c r="O50">
+      <c r="R50">
         <v>945.2441004697024</v>
       </c>
-      <c r="P50">
+      <c r="S50">
         <v>7356.111749438628</v>
       </c>
-      <c r="Q50">
+      <c r="T50">
         <v>436.1616918156179</v>
       </c>
-      <c r="R50">
+      <c r="U50">
         <v>347.428234109705</v>
+      </c>
+      <c r="V50">
+        <v>1553.409485175363</v>
+      </c>
+      <c r="W50">
+        <v>351.0700205107687</v>
+      </c>
+      <c r="X50">
+        <v>3707.584403261557</v>
       </c>
     </row>
     <row r="51">
@@ -3349,7 +4243,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C51">
@@ -3377,28 +4271,46 @@
         <v>2.052280965250011</v>
       </c>
       <c r="K51">
+        <v>7.433601242698528</v>
+      </c>
+      <c r="L51">
+        <v>2.074160342333089</v>
+      </c>
+      <c r="M51">
+        <v>-0.09054198118456365</v>
+      </c>
+      <c r="N51">
         <v>1809.475422683818</v>
       </c>
-      <c r="L51">
+      <c r="O51">
         <v>972.6669896605569</v>
       </c>
-      <c r="M51">
+      <c r="P51">
         <v>1087.787257460178</v>
       </c>
-      <c r="N51">
+      <c r="Q51">
         <v>1349.403896124317</v>
       </c>
-      <c r="O51">
+      <c r="R51">
         <v>789.7307545148358</v>
       </c>
-      <c r="P51">
+      <c r="S51">
         <v>3947.625329430814</v>
       </c>
-      <c r="Q51">
+      <c r="T51">
         <v>378.453805864303</v>
       </c>
-      <c r="R51">
+      <c r="U51">
         <v>286.5923381212305</v>
+      </c>
+      <c r="V51">
+        <v>1357.515788907209</v>
+      </c>
+      <c r="W51">
+        <v>246.4100045171279</v>
+      </c>
+      <c r="X51">
+        <v>1959.361568083663</v>
       </c>
     </row>
     <row r="52">
@@ -3409,7 +4321,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C52">
@@ -3437,28 +4349,46 @@
         <v>3.061726832862999</v>
       </c>
       <c r="K52">
+        <v>0.3636560064800461</v>
+      </c>
+      <c r="L52">
+        <v>1.773600696092092</v>
+      </c>
+      <c r="M52">
+        <v>-0.2673713792698609</v>
+      </c>
+      <c r="N52">
         <v>318.2063893505624</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <v>374.7235577867979</v>
       </c>
-      <c r="M52">
+      <c r="P52">
         <v>590.9781242451304</v>
       </c>
-      <c r="N52">
+      <c r="Q52">
         <v>311.6172523045821</v>
       </c>
-      <c r="O52">
+      <c r="R52">
         <v>354.332442233698</v>
       </c>
-      <c r="P52">
+      <c r="S52">
         <v>2990.528414142239</v>
       </c>
-      <c r="Q52">
+      <c r="T52">
         <v>388.6116659454868</v>
       </c>
-      <c r="R52">
+      <c r="U52">
         <v>331.0023064267359</v>
+      </c>
+      <c r="V52">
+        <v>310.4374517352391</v>
+      </c>
+      <c r="W52">
+        <v>176.8524980149849</v>
+      </c>
+      <c r="X52">
+        <v>1583.690382123434</v>
       </c>
     </row>
     <row r="53">
@@ -3469,7 +4399,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C53">
@@ -3497,28 +4427,46 @@
         <v>0.6800924770038561</v>
       </c>
       <c r="K53">
+        <v>8.958782927995038</v>
+      </c>
+      <c r="L53">
+        <v>2.536855190479292</v>
+      </c>
+      <c r="M53">
+        <v>1.056515702294785</v>
+      </c>
+      <c r="N53">
         <v>3566.929817674593</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>1698.491220060652</v>
       </c>
-      <c r="M53">
+      <c r="P53">
         <v>1909.128691123912</v>
       </c>
-      <c r="N53">
+      <c r="Q53">
         <v>2276.177774150889</v>
       </c>
-      <c r="O53">
+      <c r="R53">
         <v>1217.449297468608</v>
       </c>
-      <c r="P53">
+      <c r="S53">
         <v>12877.78103499802</v>
       </c>
-      <c r="Q53">
+      <c r="T53">
         <v>294.2311762988281</v>
       </c>
-      <c r="R53">
+      <c r="U53">
         <v>228.7903732262296</v>
+      </c>
+      <c r="V53">
+        <v>2351.21879748393</v>
+      </c>
+      <c r="W53">
+        <v>269.959215111216</v>
+      </c>
+      <c r="X53">
+        <v>4564.393453808899</v>
       </c>
     </row>
     <row r="54">
@@ -3529,7 +4477,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pingvin</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C54">
@@ -3557,28 +4505,46 @@
         <v>0.495002021711253</v>
       </c>
       <c r="K54">
+        <v>3.133317872640081</v>
+      </c>
+      <c r="L54">
+        <v>3.910784879921014</v>
+      </c>
+      <c r="M54">
+        <v>2.086392668992078</v>
+      </c>
+      <c r="N54">
         <v>1560.510619716695</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <v>1024.439932229115</v>
       </c>
-      <c r="M54">
+      <c r="P54">
         <v>1230.166339364422</v>
       </c>
-      <c r="N54">
+      <c r="Q54">
         <v>1047.575776362046</v>
       </c>
-      <c r="O54">
+      <c r="R54">
         <v>842.1819712743541</v>
       </c>
-      <c r="P54">
+      <c r="S54">
         <v>16871.67635060463</v>
       </c>
-      <c r="Q54">
+      <c r="T54">
         <v>254.6142844507739</v>
       </c>
-      <c r="R54">
+      <c r="U54">
         <v>184.6248266128735</v>
+      </c>
+      <c r="V54">
+        <v>1008.015970110863</v>
+      </c>
+      <c r="W54">
+        <v>361.6566552227311</v>
+      </c>
+      <c r="X54">
+        <v>6064.300241759107</v>
       </c>
     </row>
     <row r="55">
@@ -3589,7 +4555,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C55">
@@ -3617,28 +4583,46 @@
         <v>0.8226540879328939</v>
       </c>
       <c r="K55">
+        <v>12.55908950256942</v>
+      </c>
+      <c r="L55">
+        <v>1.248949562945401</v>
+      </c>
+      <c r="M55">
+        <v>2.042806417940946</v>
+      </c>
+      <c r="N55">
         <v>1064.132220351503</v>
       </c>
-      <c r="L55">
+      <c r="O55">
         <v>907.032527596619</v>
       </c>
-      <c r="M55">
+      <c r="P55">
         <v>1464.719446352288</v>
       </c>
-      <c r="N55">
+      <c r="Q55">
         <v>1095.727261150818</v>
       </c>
-      <c r="O55">
+      <c r="R55">
         <v>703.5668449794081</v>
       </c>
-      <c r="P55">
+      <c r="S55">
         <v>17281.76823724833</v>
       </c>
-      <c r="Q55">
+      <c r="T55">
         <v>345.3579051373666</v>
       </c>
-      <c r="R55">
+      <c r="U55">
         <v>245.9794763693379</v>
+      </c>
+      <c r="V55">
+        <v>880.7065045187278</v>
+      </c>
+      <c r="W55">
+        <v>189.763854728475</v>
+      </c>
+      <c r="X55">
+        <v>7133.704927897548</v>
       </c>
     </row>
     <row r="56">
@@ -3649,7 +4633,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Søløve</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="C56">
@@ -3677,28 +4661,46 @@
         <v>0.0294080144752244</v>
       </c>
       <c r="K56">
+        <v>0.760322898710185</v>
+      </c>
+      <c r="L56">
+        <v>0.6445440633640835</v>
+      </c>
+      <c r="M56">
+        <v>0.4122037305828004</v>
+      </c>
+      <c r="N56">
         <v>688.4782678086534</v>
       </c>
-      <c r="L56">
+      <c r="O56">
         <v>758.6743040084156</v>
       </c>
-      <c r="M56">
+      <c r="P56">
         <v>1111.648572496126</v>
       </c>
-      <c r="N56">
+      <c r="Q56">
         <v>453.6581438365121</v>
       </c>
-      <c r="O56">
+      <c r="R56">
         <v>598.2678080913053</v>
       </c>
-      <c r="P56">
+      <c r="S56">
         <v>8589.260613124121</v>
       </c>
-      <c r="Q56">
+      <c r="T56">
         <v>248.2176720464151</v>
       </c>
-      <c r="R56">
+      <c r="U56">
         <v>148.5164446411826</v>
+      </c>
+      <c r="V56">
+        <v>493.8407479948345</v>
+      </c>
+      <c r="W56">
+        <v>135.9483545765</v>
+      </c>
+      <c r="X56">
+        <v>3212.18550564664</v>
       </c>
     </row>
   </sheetData>
